--- a/EB_012214_B.xlsx
+++ b/EB_012214_B.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Histology" sheetId="3" r:id="rId3"/>
     <sheet name="Surgery" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -143,13 +143,530 @@
     <t>Injected AAV9_Ef1a-C1V1(T/T)-eYFP. Injection site located at 2.6 mm left of Lambda. Injected 75 nl at depth of 190 um at rate of 40 nl/min.</t>
   </si>
   <si>
-    <t>Injected with AAV9_C1V1.</t>
-  </si>
-  <si>
     <t>1.22.2014</t>
   </si>
   <si>
     <t>Burr Hole Injection of Virus</t>
+  </si>
+  <si>
+    <t>919 ul K-Gluconate + 31 ul DI H2O</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>2014_02_14_0002</t>
+  </si>
+  <si>
+    <t>2014_02_14_0003</t>
+  </si>
+  <si>
+    <t>2014_02_14_0004</t>
+  </si>
+  <si>
+    <t>2014_02_14_0005</t>
+  </si>
+  <si>
+    <t>2014_02_14_0006</t>
+  </si>
+  <si>
+    <t>2014_02_14_0007</t>
+  </si>
+  <si>
+    <t>2014_02_14_0008</t>
+  </si>
+  <si>
+    <t>2014_02_14_0009</t>
+  </si>
+  <si>
+    <t>2014_02_14_0010</t>
+  </si>
+  <si>
+    <t>2014_02_14_0011</t>
+  </si>
+  <si>
+    <t>2014_02_14_0012</t>
+  </si>
+  <si>
+    <t>2014_02_14_0013</t>
+  </si>
+  <si>
+    <t>2014_02_14_0014</t>
+  </si>
+  <si>
+    <t>2014_02_14_0015</t>
+  </si>
+  <si>
+    <t>2014_02_14_0016</t>
+  </si>
+  <si>
+    <t>2014_02_14_0017</t>
+  </si>
+  <si>
+    <t>2014_02_14_0018</t>
+  </si>
+  <si>
+    <t>2014_02_14_0019</t>
+  </si>
+  <si>
+    <r>
+      <t>590 nm steps.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> AS&amp;FS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> closed Vhold = -60. 300 um from soma, towards center of brain. </t>
+    </r>
+  </si>
+  <si>
+    <t>2014_02_14_0020</t>
+  </si>
+  <si>
+    <r>
+      <t>590 nm steps.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> AS&amp;FS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> closed Vhold = -60. 250 um from soma, towards center of brain. </t>
+    </r>
+  </si>
+  <si>
+    <t>2014_02_14_0021</t>
+  </si>
+  <si>
+    <t>2014_02_14_0022</t>
+  </si>
+  <si>
+    <t>2014_02_14_0023</t>
+  </si>
+  <si>
+    <r>
+      <t>590 nm steps.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> AS&amp;FS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> closed Vhold = -60. 200 um from soma, towards center of brain. </t>
+    </r>
+  </si>
+  <si>
+    <t>2014_02_14_0024</t>
+  </si>
+  <si>
+    <t>2014_02_14_0025</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Vout = 3 mV. Cell was about 335 um from the pia.</t>
+  </si>
+  <si>
+    <t>2014_02_14_0028</t>
+  </si>
+  <si>
+    <t>LED 590 nm at the soma. Big response. PV+ cell.</t>
+  </si>
+  <si>
+    <t>2014_02_14_0029</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED 590 nm. 200 um away form soma. FS is open Cell isn't particularly healthy, but possibly stable… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>In NBQX+AP5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED 590 nm. 200 um away form soma. FS is closed Cell isn't particularly healthy, but possibly stable… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>In NBQX+AP5</t>
+    </r>
+  </si>
+  <si>
+    <t>2014_02_14_0030</t>
+  </si>
+  <si>
+    <t>2014_02_14_0031</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED 590 nm. 200 um away form soma. FS is open Cell isn't particularly healthy, but possibly stable… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">In NBQX+AP5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>This is a repeat of 0029 to demonstrate cell health.</t>
+    </r>
+  </si>
+  <si>
+    <t>2014_02_14_0032</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED 590 nm. 200 um away form soma. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>FS&amp;AS open.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Cell isn't particularly healthy, but possibly stable… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">In NBQX+AP5. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Cells becomes too unhealthy at the end. Treat this file with some skeptisism. </t>
+    </r>
+  </si>
+  <si>
+    <t>Vout = 7mV. Cell was about 375 um from pia</t>
+  </si>
+  <si>
+    <t>590 nm steps at the soma. FS closed. Vhold = -60</t>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed. Vhold = -60. 200 um from soma, towards center of brain.</t>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed. Vhold = -60. 300 um from soma, towards center of brain.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps. FS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Vhold = -60. 300 um from soma, towards center of brain.</t>
+    </r>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed Vhold = -60. 400 um from soma, towards center of brain.</t>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed Vhold = -60. 500 um from soma, towards center of brain.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps. FS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Vhold = -60. 500 um from soma, towards center of brain.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps. FS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Vhold = -60. 750 um from soma, towards center of brain.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps. FS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Vhold = -60. 1000 um from soma, towards center of brain.</t>
+    </r>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed Vhold = -60. 250 um from soma, towards center of brain.</t>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed Vhold = -60. 300 um from soma, towards center of brain. This is a repeat of an earlier file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590 nm steps. FS closed Vhold = -60. 350 um from soma, towards center of brain. </t>
+  </si>
+  <si>
+    <t>590 nm steps. FS closed Vhold = -60. 400 um from soma, towards center of brain. This is a repeat of an earlier run</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps. FS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Vhold = -60. 400 um from soma, towards center of brain.</t>
+    </r>
+  </si>
+  <si>
+    <t>590 nm stepsa. FS closed Vhold = -60. 450 um from soma, towards center of brain.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps. FS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Vhold = -60. 450 um from soma, towards center of brain.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>590 nm steps.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Only the FS is closed Vhold = -60. 250 um from soma, towards center of brain.  This is hopefully a repeat of an earlier file to confirm cell health and stability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>590 nm steps.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Only the FS is closed Vhold = -60. 200 um from soma, towards center of brain.  This is hopefully a repeat of an earlier file to confirm cell health and stability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>590 nm steps.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Only the FS is closed Vhold = -60. 200 um from soma, towards center of brain.  This is hopefully a repeat of an earlier file to confirm cell health and stability and will help interpret the results with both the FS and AS iris closed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">590 nm steps at the soma. FS is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>open.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> Should be a repeat of the very first file, but the cell is very unhealthy (look at the holding current nessary to sustaing -60 mV. This is the first file with poor cell health.) And this time, the 590 nm light evokes spiking activity from the cell.</t>
+    </r>
+  </si>
+  <si>
+    <t>Good expression of C1V1 in PV+ cells. Two recordings from PV+/C1V1+ cells trying to determine the spatial spread of light in the tissue. One very good data set, and a rather skimpy data set from the second cell.</t>
+  </si>
+  <si>
+    <t>Injected with AAV9_C1V1. Physiology files of spatial spread of light using the 590 nm LED. Good data set from one PV+ cell, partial set from another.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +713,12 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -712,7 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,14 +1345,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -840,6 +1363,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,9 +1397,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -888,12 +1426,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,6 +1469,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,21 +1491,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1313,7 +1842,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1872,7 @@
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="39">
         <v>41607</v>
       </c>
     </row>
@@ -1368,7 +1897,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1396,14 +1925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="24" customWidth="1"/>
@@ -1414,66 +1943,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="25">
+        <v>296</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="27">
+        <v>307</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="50">
+        <v>34</v>
+      </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1491,263 +2032,461 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="G7" s="41"/>
       <c r="H7" s="42"/>
     </row>
-    <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="8" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="G8" s="41"/>
       <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="G9" s="41"/>
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="G10" s="41"/>
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="G11" s="41"/>
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="G15" s="41"/>
       <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="G16" s="41"/>
       <c r="H16" s="42"/>
     </row>
-    <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+    <row r="17" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="G17" s="41"/>
       <c r="H17" s="42"/>
     </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+    <row r="18" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="G18" s="41"/>
       <c r="H18" s="42"/>
     </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="G19" s="41"/>
       <c r="H19" s="42"/>
     </row>
-    <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+    <row r="20" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="26"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="G20" s="41"/>
       <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="G21" s="41"/>
       <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="41"/>
       <c r="H22" s="42"/>
     </row>
-    <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="40"/>
+    <row r="23" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="G23" s="41"/>
       <c r="H23" s="42"/>
     </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="40"/>
+    <row r="24" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="41"/>
       <c r="H24" s="42"/>
     </row>
-    <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="40"/>
+    <row r="25" spans="1:8" s="37" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="40"/>
+    <row r="26" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="G26" s="41"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="40"/>
+    <row r="27" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="G27" s="41"/>
       <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="40"/>
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="G28" s="41"/>
       <c r="H28" s="42"/>
     </row>
-    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="40"/>
+    <row r="29" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="G29" s="41"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="40"/>
+    <row r="30" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="G31" s="41"/>
       <c r="H31" s="42"/>
     </row>
-    <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1758,62 +2497,106 @@
       <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="40"/>
+      <c r="F33" s="40" t="s">
+        <v>73</v>
+      </c>
       <c r="G33" s="41"/>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+    <row r="34" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
-    <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="40"/>
+    <row r="35" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="42"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="40"/>
+    <row r="36" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="G36" s="41"/>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="40"/>
+    <row r="37" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="40" t="s">
+        <v>81</v>
+      </c>
       <c r="G37" s="41"/>
       <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="G38" s="41"/>
       <c r="H38" s="42"/>
     </row>
@@ -3433,203 +4216,13 @@
       <c r="C200" s="7"/>
       <c r="D200" s="8"/>
       <c r="E200" s="28"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="60"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="45"/>
     </row>
     <row r="201" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="F200:H200"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="F195:H195"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="F189:H189"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="F181:H181"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="F179:H179"/>
-    <mergeCell ref="F180:H180"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="F167:H167"/>
-    <mergeCell ref="F168:H168"/>
-    <mergeCell ref="F169:H169"/>
-    <mergeCell ref="F170:H170"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -3644,6 +4237,196 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="F167:H167"/>
+    <mergeCell ref="F168:H168"/>
+    <mergeCell ref="F169:H169"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="F173:H173"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="F189:H189"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="F195:H195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3676,77 +4459,77 @@
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3787,198 +4570,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="B3" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
